--- a/R_Scripts/MatthewR/Category Analysis/RF Tables.xlsx
+++ b/R_Scripts/MatthewR/Category Analysis/RF Tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Desktop/CDRC19/R_Scripts/MatthewR/Category Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B91697-0319-8C45-9877-35768CE1A010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA9E22-2EE6-4649-A34E-D219833618F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="500" windowWidth="13720" windowHeight="16340" xr2:uid="{5138641A-2ED9-654B-8426-06C59D066862}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14800" windowHeight="16340" activeTab="1" xr2:uid="{5138641A-2ED9-654B-8426-06C59D066862}"/>
   </bookViews>
   <sheets>
     <sheet name="Disease RF" sheetId="1" r:id="rId1"/>
-    <sheet name="Food RF" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Food RF" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Explanatory Variables</t>
   </si>
@@ -140,6 +141,51 @@
   </si>
   <si>
     <t>$8.56\times10^{-5}$</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>MICE (dataset 1,2,3,4,5) and Random Forests</t>
+  </si>
+  <si>
+    <t>MICE (dataset 3) and Random Forests</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>MICE (dataset 1,2,3,5) and Random Forest</t>
+  </si>
+  <si>
+    <t>MICE (dataset 1,2,3,4,5) and Random Forest</t>
+  </si>
+  <si>
+    <t>MICE (1,2,3,5) and Random Forest</t>
+  </si>
+  <si>
+    <t>meningitis ihme 2017</t>
+  </si>
+  <si>
+    <t>MICE (1,2,3,4,5)</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Data Category</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Food &amp; Water</t>
+  </si>
+  <si>
+    <t>Life Satisfaction Indicator</t>
+  </si>
+  <si>
+    <t>World Statistics</t>
   </si>
 </sst>
 </file>
@@ -159,15 +205,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,11 +242,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -205,9 +268,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,6 +276,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25747238-5BBE-9841-B711-BA784251B256}">
-  <dimension ref="E4:G20"/>
+  <dimension ref="E4:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,69 +690,125 @@
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="9">
         <v>3.0058000000000001E-2</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="10">
         <v>-12.1835</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="11">
         <v>2.8479999999999998E-3</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="10">
         <v>-0.37790000000000001</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="9">
         <v>4.8482999999999998E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="10">
         <v>2.2454000000000001</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="9">
         <v>3.2904000000000003E-2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="10">
         <v>-19.722000000000001</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="10">
         <v>10.1165</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -680,11 +820,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB66C3E7-378C-4748-847A-D5163E7690A4}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B1A0A-98A2-B94C-B34B-F7A0DA5CCFBA}">
-  <dimension ref="C4:I15"/>
+  <dimension ref="C4:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E15"/>
+    <sheetView topLeftCell="B1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,10 +942,10 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -713,10 +953,10 @@
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -724,10 +964,10 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -735,10 +975,10 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -746,7 +986,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2"/>
@@ -776,25 +1016,49 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="3">
         <v>1.1900000000000001E-3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>-110.8674</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>-2.1175999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
